--- a/biology/Zoologie/Anolis_cupreus/Anolis_cupreus.xlsx
+++ b/biology/Zoologie/Anolis_cupreus/Anolis_cupreus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anolis cupreus est une espèce de sauriens de la famille des Dactyloidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anolis cupreus est une espèce de sauriens de la famille des Dactyloidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Honduras, au Nicaragua et au Costa Rica[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Honduras, au Nicaragua et au Costa Rica.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (8 janvier 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (8 janvier 2013) :
 Anolis cupreus cupreus Hallowell, 1860
 Anolis cupreus dariense Fitch &amp; Seigel, 1984
 Anolis cupreus hoffmanni Peters, 1863
@@ -576,7 +592,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Fitch &amp; Seigel, 1984 : Ecological and taxonomic notes on Nicaraguan anoles. Milwaukee Public Museum. Contributions in Biology and Geology, no 57, p. 1-13.
 Fitch, Echelle &amp; Echelle, 1972 : Variation in the Central American iguanid lizard Anolis cupreus, with the description of a new subspecies. Occasional papers of the Museum of Natural History, The University of Kansas, no 8, p. 1-20 (texte intégral).
